--- a/module/Module.xlsx
+++ b/module/Module.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ERMS\module\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B36714B-0973-41A4-9FB7-D22F7AF894B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="24" windowWidth="14340" windowHeight="7440"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Module Code (MCode)</t>
   </si>
@@ -32,11 +38,14 @@
   <si>
     <t>Introduction to IT</t>
   </si>
+  <si>
+    <t>credit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,14 +90,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -126,7 +138,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -198,7 +210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -371,11 +383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,7 +397,7 @@
     <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,8 +407,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -406,18 +421,21 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -428,7 +446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -440,7 +458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
